--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3746242.200225824</v>
+        <v>3744354.61870942</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>215.7890775924895</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>326.2097809358207</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.461970681989442</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>291.2607927468913</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>64.34226368086765</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.7411677825657</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>76.48464164091949</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>263.382317136682</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748116</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>341.7625865374719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343914026</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>83.5983059739489</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.726528083595819</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.31285845810835</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>101.2898147863544</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>111.9679966130644</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>211.2541671901479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>143.0309728090496</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>211.254167190148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>172.7067178467367</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>248.7090763400659</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>173.6793845477823</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>211.2541671901479</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801216</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>80.40192578519448</v>
       </c>
       <c r="H31" t="n">
-        <v>38.17624413234096</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298322</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415213</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>843.3415311720269</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>843.3415311720269</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>843.3415311720269</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>843.3415311720269</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,10 +4346,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,31 +4428,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>919.5755868835438</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>919.5755868835438</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>919.5755868835438</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>919.5755868835438</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.5755868835438</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>597.07729957758</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>597.07729957758</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>369.7691122461817</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U7" t="n">
-        <v>369.7691122461817</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V7" t="n">
-        <v>369.7691122461817</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1430.355453824636</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1430.355453824636</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1072.089755217885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.723949158872</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.723949158872</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1816.955293888758</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1816.955293888758</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1816.955293888758</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641978</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598699</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406191</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>365.6939024587818</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>138.3857151273836</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>138.3857151273836</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>138.3857151273836</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>138.3857151273836</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036449</v>
       </c>
     </row>
     <row r="11">
@@ -5024,46 +5024,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387593</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011508</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952639</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>420.0340835819384</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,10 +5273,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404654</v>
+        <v>97.2170914602863</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404654</v>
+        <v>97.2170914602863</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W16" t="n">
-        <v>754.894602230607</v>
+        <v>318.0096706038164</v>
       </c>
       <c r="X16" t="n">
-        <v>526.9050513325897</v>
+        <v>318.0096706038164</v>
       </c>
       <c r="Y16" t="n">
-        <v>306.1124721890596</v>
+        <v>97.2170914602863</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,64 +5501,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1274.742180641885</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U19" t="n">
-        <v>786.082206476519</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706321</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.881333182379</v>
@@ -5756,7 +5756,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5827690683474</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5827690683474</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765189</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="V22" t="n">
-        <v>531.397718270632</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5827690683474</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1028.859951698066</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1124.545030325236</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>835.416391538794</v>
+        <v>898.7925182488385</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6221,16 +6221,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1212.407445354291</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1212.407445354291</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765189</v>
+        <v>923.2788065678495</v>
       </c>
       <c r="V28" t="n">
-        <v>531.397718270632</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="W28" t="n">
-        <v>531.397718270632</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.0058129140982</v>
+        <v>439.5324299542177</v>
       </c>
       <c r="C31" t="n">
-        <v>525.830495267562</v>
+        <v>326.3571123076815</v>
       </c>
       <c r="D31" t="n">
-        <v>431.4747211365971</v>
+        <v>326.3571123076815</v>
       </c>
       <c r="E31" t="n">
-        <v>339.3224928355746</v>
+        <v>234.2048840066591</v>
       </c>
       <c r="F31" t="n">
-        <v>248.1934106190351</v>
+        <v>234.2048840066591</v>
       </c>
       <c r="G31" t="n">
-        <v>135.7789542202262</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1936.126063056074</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1768.101513126951</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1534.73373962188</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.810116697363</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1102.153811941773</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>929.9251263251266</v>
+        <v>730.451743365246</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.8934124629671</v>
+        <v>565.4200295030867</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504514</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7388,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7631,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7664,10 +7664,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128705</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.969180129612</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,22 +7831,22 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169141996</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814685</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>412.6002929596431</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>308.1251096272036</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>188.8856946302396</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>285.1031356539326</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>176.7176547498444</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>124.3400780863224</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>176.7176547498447</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706262929</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>176.1054520983415</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338589</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.519121723829</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>185.2331835502366</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>85.95281337053881</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>75.26883114644309</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>5.584500209162735</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>75.26883114644298</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>48.84084321165255</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>37.81392199652512</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>24.2414254358209</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>14.45548819888927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965534</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437423</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>30.88838604962609</v>
       </c>
       <c r="H31" t="n">
-        <v>55.53432760663814</v>
+        <v>93.71057173897911</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698726.5714523909</v>
+        <v>698726.571452391</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
@@ -26320,40 +26320,40 @@
         <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278763</v>
+        <v>703852.307527876</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278763</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.307527876</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="K2" t="n">
-        <v>732279.8472214857</v>
+        <v>732279.8472214852</v>
       </c>
       <c r="L2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="M2" t="n">
         <v>738937.5928778561</v>
-      </c>
-      <c r="M2" t="n">
-        <v>738937.5928778558</v>
       </c>
       <c r="N2" t="n">
         <v>738937.5928778556</v>
       </c>
       <c r="O2" t="n">
-        <v>738937.5928778565</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.5928778565</v>
+        <v>738937.5928778555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>4.820286676476826e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768956</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
+        <v>44162.60530284561</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10342.9068008669</v>
+      </c>
+      <c r="M3" t="n">
+        <v>134801.0152338371</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>44162.60530284562</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10342.90680086689</v>
-      </c>
-      <c r="M3" t="n">
-        <v>134801.0152338372</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159207</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007451</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007442</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020396</v>
+        <v>26081.35417020393</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732798</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732796</v>
@@ -26467,40 +26467,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81806.41311602</v>
+        <v>-81806.4131160199</v>
       </c>
       <c r="C6" t="n">
         <v>508161.4660985245</v>
       </c>
       <c r="D6" t="n">
-        <v>508161.4660985246</v>
+        <v>508161.4660985243</v>
       </c>
       <c r="E6" t="n">
-        <v>78788.21344625633</v>
+        <v>78690.75432028415</v>
       </c>
       <c r="F6" t="n">
-        <v>603948.2499231523</v>
+        <v>603850.7907971797</v>
       </c>
       <c r="G6" t="n">
-        <v>603948.2499231522</v>
+        <v>603850.7907971799</v>
       </c>
       <c r="H6" t="n">
-        <v>603948.249923152</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="I6" t="n">
-        <v>603948.2499231518</v>
+        <v>603850.7907971797</v>
       </c>
       <c r="J6" t="n">
-        <v>427525.030730559</v>
+        <v>427427.5716045864</v>
       </c>
       <c r="K6" t="n">
-        <v>565407.6792182134</v>
+        <v>565389.1854802785</v>
       </c>
       <c r="L6" t="n">
-        <v>600544.0613596358</v>
+        <v>600544.061359635</v>
       </c>
       <c r="M6" t="n">
-        <v>476085.9529266653</v>
+        <v>476085.9529266657</v>
       </c>
       <c r="N6" t="n">
         <v>610886.9681605023</v>
       </c>
       <c r="O6" t="n">
-        <v>610886.9681605031</v>
+        <v>610886.9681605024</v>
       </c>
       <c r="P6" t="n">
-        <v>566724.3628576575</v>
+        <v>566724.3628576566</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
@@ -26722,7 +26722,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170871</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,7 +26814,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108362</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>3.979039320256561e-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>452.6387412370131</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>452.6387412370134</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>191.0869681492219</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>60.02815772023291</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>115.6152529948201</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>321.895674975186</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>16.92402419759219</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>148.5504638171648</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>118.5480529355797</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.47535211858167</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853694</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491423</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974507</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>142.1113494150883</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
         <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633809</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473561</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141118</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188924</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396486</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034988</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078619</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813583</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302248</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175855</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383811</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678015</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.017335757707</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047509</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338905</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713963</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873159</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330535</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>515.2185245587283</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>499.310071680706</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>492.1965505854573</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478574</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843354</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>487.142031800311</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477035</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
